--- a/data/income_statement/2digits/size/16_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/16_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>16-Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>16-Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,653 +841,738 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>952888.36723</v>
+        <v>983496.279</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1100430.45431</v>
+        <v>1150841.40265</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1375011.9315</v>
+        <v>1416419.08508</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1635364.63557</v>
+        <v>1696931.15103</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1984533.90135</v>
+        <v>2075173.08308</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2181103.75137</v>
+        <v>2215767.98705</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2359740.60718</v>
+        <v>2504882.7598</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2466722.68687</v>
+        <v>2634986.77557</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2805384.47363</v>
+        <v>3125401.24853</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4153296.28659</v>
+        <v>4203428.48659</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4768900.34369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4881470.1786</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5943361.47</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>903334.16134</v>
+        <v>929509.65749</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1047524.8131</v>
+        <v>1097595.22797</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1322614.3658</v>
+        <v>1363964.15279</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1570309.58092</v>
+        <v>1629080.66784</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1883068.3927</v>
+        <v>1969833.37603</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2066819.02088</v>
+        <v>2092577.74061</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2245698.68057</v>
+        <v>2380560.17106</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2351466.72628</v>
+        <v>2508305.50234</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2660322.13144</v>
+        <v>2964850.89296</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3894227.06024</v>
+        <v>3928922.24506</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4366710.681779999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4455752.7583</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5388740.83</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>42341.54807</v>
+        <v>46629.32894</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>43902.89922</v>
+        <v>44183.44425</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>38904.03746</v>
+        <v>39197.20172</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>55593.83146</v>
+        <v>57946.18504</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>85644.14044</v>
+        <v>89159.13481</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>95790.24348</v>
+        <v>103957.00389</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>95857.80308</v>
+        <v>104329.83052</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>90135.96406</v>
+        <v>99869.91279</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>118513.35639</v>
+        <v>126461.68781</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>217564.34434</v>
+        <v>229123.89193</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>345462.51966</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>365021.96529</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>482137.673</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7212.65782</v>
+        <v>7357.292570000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9002.74199</v>
+        <v>9062.73043</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>13493.52824</v>
+        <v>13257.73057</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>9461.223189999999</v>
+        <v>9904.298149999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15821.36821</v>
+        <v>16180.57224</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>18494.48701</v>
+        <v>19233.24255</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>18184.12353</v>
+        <v>19992.75822</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>25119.99653</v>
+        <v>26811.36044</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>26548.9858</v>
+        <v>34088.66776</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>41504.88201</v>
+        <v>45382.3496</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>56727.14225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>60695.45501000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>72482.967</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4735.91217</v>
+        <v>5004.58784</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4365.490640000001</v>
+        <v>5943.77689</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6546.98475</v>
+        <v>7226.6356</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>5975.52735</v>
+        <v>6957.93636</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8083.950880000001</v>
+        <v>9744.012379999998</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>10496.90907</v>
+        <v>10661.23847</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12184.11787</v>
+        <v>14538.84608</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>10479.99229</v>
+        <v>12413.13858</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>12548.38143</v>
+        <v>15568.05057</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>26297.80789</v>
+        <v>28989.40374</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>39914.70516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>40990.11694</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>66746.351</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3737.18063</v>
+        <v>3914.61416</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3461.63805</v>
+        <v>4840.55046</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4674.04303</v>
+        <v>5191.0009</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4592.49459</v>
+        <v>5550.091810000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6681.730430000001</v>
+        <v>8204.854450000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7365.74475</v>
+        <v>7547.60282</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9704.27125</v>
+        <v>11959.93951</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>8234.060099999999</v>
+        <v>10081.92857</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>10146.19153</v>
+        <v>12811.14098</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>20996.85357</v>
+        <v>23643.81526</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>35340.29734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>36303.4404</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>60782.714</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>772.4623399999999</v>
+        <v>863.79468</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>664.10387</v>
+        <v>857.67554</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1598.62366</v>
+        <v>1754.9511</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>976.2784200000001</v>
+        <v>1002.99275</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>980.20498</v>
+        <v>1080.07423</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2629.53575</v>
+        <v>2614.22071</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2067.62517</v>
+        <v>2098.96461</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1728.5093</v>
+        <v>1777.5966</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1855.95638</v>
+        <v>2111.13569</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2218.39103</v>
+        <v>2222.01592</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2364.75549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2439.88405</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2237.287</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>226.2692</v>
+        <v>226.179</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>239.74872</v>
+        <v>245.55089</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>274.31806</v>
+        <v>280.6836</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>406.75434</v>
+        <v>404.8518</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>422.01547</v>
+        <v>459.0837</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>501.62857</v>
+        <v>499.4149399999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>412.2214499999999</v>
+        <v>479.9419599999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>517.4228900000001</v>
+        <v>553.6134099999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>546.23352</v>
+        <v>645.7739</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3082.56329</v>
+        <v>3123.57256</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2209.65233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2246.79249</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3726.35</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>948152.4550599999</v>
+        <v>978491.69116</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1096064.96367</v>
+        <v>1144897.62576</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1368464.94675</v>
+        <v>1409192.44948</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1629389.10822</v>
+        <v>1689973.21467</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1976449.95047</v>
+        <v>2065429.0707</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2170606.8423</v>
+        <v>2205106.74858</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2347556.48931</v>
+        <v>2490343.91372</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2456242.69458</v>
+        <v>2622573.63699</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2792836.0922</v>
+        <v>3109833.19796</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4126998.4787</v>
+        <v>4174439.08285</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4728985.63853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4840480.06166</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5876615.119</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>820856.15966</v>
+        <v>844717.7436700001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>947724.1810099999</v>
+        <v>989648.2049400001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1186608.06184</v>
+        <v>1219991.45663</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1407338.74171</v>
+        <v>1462108.34468</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1677776.39841</v>
+        <v>1755395.01193</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1877406.16083</v>
+        <v>1905994.60442</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2028022.74095</v>
+        <v>2154969.54864</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2129230.54389</v>
+        <v>2272377.42494</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2428802.40417</v>
+        <v>2696613.21241</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3595933.99955</v>
+        <v>3622836.49006</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4098534.93917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4194017.55978</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5062089.674</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>561233.3049</v>
+        <v>588990.52153</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>649719.19949</v>
+        <v>683930.40499</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>792837.51533</v>
+        <v>825694.3928900001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>934162.1338899999</v>
+        <v>985788.76388</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1151206.56849</v>
+        <v>1215246.98594</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1268711.76407</v>
+        <v>1283696.87935</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1437402.49741</v>
+        <v>1531437.04773</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1447594.66354</v>
+        <v>1556908.18062</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1600759.03519</v>
+        <v>1815272.02995</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2472645.39331</v>
+        <v>2525177.41882</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2770506.6989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2808348.17439</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3560420.219</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>220299.94153</v>
+        <v>216130.82919</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>252275.41443</v>
+        <v>260685.66363</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>341203.22066</v>
+        <v>340034.94107</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>422668.37519</v>
+        <v>419686.85024</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>456623.9594699999</v>
+        <v>469759.5030499999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>532608.96508</v>
+        <v>540505.2047999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>524585.6341</v>
+        <v>557940.40789</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>587251.8049700001</v>
+        <v>614294.3668</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>744256.53626</v>
+        <v>784079.63455</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>986415.8144599999</v>
+        <v>972601.6059600001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1154625.37369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1214624.50018</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1322972.706</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>37222.83902000001</v>
+        <v>37487.82384</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>41814.20597</v>
+        <v>40891.06226</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>49795.40804000001</v>
+        <v>50244.77853</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>48572.53069</v>
+        <v>54326.0677</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>66709.8858</v>
+        <v>66499.34817</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>67598.02071000001</v>
+        <v>73123.4829</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>57614.73509999999</v>
+        <v>56774.26774</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>86540.85967000001</v>
+        <v>90518.45672</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>75555.34870999999</v>
+        <v>87142.70761</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>117026.81794</v>
+        <v>105822.07417</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>152834.93176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>151775.10131</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>159858.009</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2100.07421</v>
+        <v>2108.56911</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3915.36112</v>
+        <v>4141.07406</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2771.91781</v>
+        <v>4017.34414</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1935.70194</v>
+        <v>2306.66286</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3235.98465</v>
+        <v>3889.17477</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>8487.410970000001</v>
+        <v>8669.03737</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>8419.87434</v>
+        <v>8817.825280000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>7843.215710000001</v>
+        <v>10656.4208</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>8231.48401</v>
+        <v>10118.8403</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>19845.97384</v>
+        <v>19235.39111</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>20567.93482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19269.7839</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>18838.74</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>127296.2954</v>
+        <v>133773.94749</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>148340.78266</v>
+        <v>155249.42082</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>181856.88491</v>
+        <v>189200.99285</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>222050.36651</v>
+        <v>227864.86999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>298673.55206</v>
+        <v>310034.05877</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>293200.68147</v>
+        <v>299112.14416</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>319533.74836</v>
+        <v>335374.36508</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>327012.15069</v>
+        <v>350196.21205</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>364033.68803</v>
+        <v>413219.9855499999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>531064.47915</v>
+        <v>551602.5927899999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>630450.69936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>646462.50188</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>814525.4449999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>97284.91242000001</v>
+        <v>99461.20296000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>109542.57137</v>
+        <v>112808.71362</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>135796.05566</v>
+        <v>137667.75692</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>154945.02563</v>
+        <v>156850.86138</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>195869.78974</v>
+        <v>196455.90775</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>209253.29957</v>
+        <v>207138.68689</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>227480.95822</v>
+        <v>229050.07213</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>234927.17216</v>
+        <v>242026.78941</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>257237.52966</v>
+        <v>281352.57196</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>349964.29338</v>
+        <v>354236.2079500001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>440258.4705999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>434469.57298</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>531128.656</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>143.96304</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>492.19857</v>
+        <v>487.38077</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>288.44221</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>190.68408</v>
+        <v>159.28808</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>284.90485</v>
+        <v>282.03555</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>432.75148</v>
@@ -1598,196 +1584,221 @@
         <v>226.51595</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>248.61951</v>
+        <v>204.81913</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>240.64951</v>
+        <v>239.96951</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>230.81295</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>688.634</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>23432.47426</v>
+        <v>23546.93612</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>27546.07284</v>
+        <v>27487.54158</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>35418.71014</v>
+        <v>36024.17326</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>39461.88989</v>
+        <v>40183.79771</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>48947.66483000001</v>
+        <v>51238.97371</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>47677.48029</v>
+        <v>47744.07278</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>56827.20533</v>
+        <v>58593.84080999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>60318.26697</v>
+        <v>62045.25231</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>65936.84371</v>
+        <v>71894.2675</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>103727.92417</v>
+        <v>104479.14183</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>112248.74947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>113518.14357</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>124873.315</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>73708.47512</v>
+        <v>75770.30379999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>81504.29996</v>
+        <v>84833.79127000002</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>100088.90331</v>
+        <v>101355.14145</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>115292.45166</v>
+        <v>116507.77559</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>146637.22006</v>
+        <v>144934.89849</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>161143.0678</v>
+        <v>158961.86263</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>170590.72269</v>
+        <v>170393.20112</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>174382.38924</v>
+        <v>179755.02115</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>191052.06644</v>
+        <v>209253.48533</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>245995.7197</v>
+        <v>249517.09661</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>327778.90818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>320720.61646</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>405566.707</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>30011.38298</v>
+        <v>34312.74453</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>38798.21129</v>
+        <v>42440.7072</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>46060.82925</v>
+        <v>51533.23593</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>67105.34088</v>
+        <v>71014.00861</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>102803.76232</v>
+        <v>113578.15102</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>83947.38190000001</v>
+        <v>91973.45727000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>92052.79014</v>
+        <v>106324.29295</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>92084.97853000001</v>
+        <v>108169.42264</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>106796.15837</v>
+        <v>131867.41359</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>181100.18577</v>
+        <v>197366.38484</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>190192.22876</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>211992.9289</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>283396.789</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>8339.016009999999</v>
+        <v>7516.24988</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8741.69534</v>
+        <v>7996.344139999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>8609.16856</v>
+        <v>8623.63632</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>9741.53651</v>
+        <v>9779.10662</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>12032.47482</v>
+        <v>13378.1491</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>15832.52075</v>
+        <v>14338.57815</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>17965.49486</v>
+        <v>16380.13416</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>16843.69197</v>
+        <v>20860.18621</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>16770.8304</v>
+        <v>17925.06242</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>51038.02497</v>
+        <v>58007.43094</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>59029.52529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>43320.3629</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>98073.751</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>7.189340000000001</v>
+        <v>5.06696</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1.67513</v>
+        <v>0</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>79.02417999999999</v>
+        <v>78.14917999999999</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>33.12940999999999</v>
+        <v>306.08086</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>102.9189</v>
+        <v>300</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>16.1975</v>
+        <v>82.48478</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>0</v>
@@ -1799,13 +1810,18 @@
         <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>13230.65182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>6.771</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1832,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0.14033</v>
+        <v>5.72063</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0.98687</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1068.7306</v>
+        <v>1262.66096</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1256.57881</v>
+        <v>1296.44856</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>727.41803</v>
+        <v>651.61076</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>779.9494999999999</v>
+        <v>618.5731800000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1415.81508</v>
+        <v>1106.88859</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1646.899</v>
+        <v>1175.49177</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1984.30244</v>
+        <v>1323.29777</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1550.11804</v>
+        <v>1557.58304</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1435.1777</v>
+        <v>1858.88047</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4009.85161</v>
+        <v>3801.21708</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>7173.21556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6968.06721</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6863.656</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.21928</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>19.59894</v>
+        <v>19.33326</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>21.49357</v>
+        <v>14.83204</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>11.73787</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>108.47794</v>
+        <v>104.23867</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>74.59298999999999</v>
+        <v>74.59712999999999</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>181.31835</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>95.62960000000001</v>
+        <v>106.78854</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>36.60299</v>
+        <v>38.88689</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>27.56801</v>
+        <v>25.46701</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>39.29092</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>38.66516</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>96.18899999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>575.94829</v>
+        <v>561.0921099999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>320.18571</v>
+        <v>320.68271</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>63.46246000000001</v>
+        <v>54.48266</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>137.08227</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>242.09631</v>
+        <v>1786.81341</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>498.6726</v>
+        <v>850.4146500000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>79.11152</v>
+        <v>319.65856</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>240.6325</v>
+        <v>3172.51221</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>327.05255</v>
+        <v>393.26359</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>758.74173</v>
+        <v>771.2463999999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1353.3523</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1393.69635</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1078.883</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>93.28849</v>
+        <v>93.36124000000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>67.37779</v>
+        <v>67.07010000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>237.54915</v>
+        <v>242.15453</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>151.71922</v>
+        <v>159.18051</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>161.78665</v>
+        <v>164.30426</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>760.66072</v>
+        <v>353.00983</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1778.26629</v>
+        <v>1706.46659</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>490.08288</v>
+        <v>488.50355</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>97.06131999999999</v>
+        <v>114.13184</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>453.48643</v>
+        <v>451.25193</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>636.6185400000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>660.7378500000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2316.96</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2772.88939</v>
+        <v>2456.53192</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2489.70644</v>
+        <v>2715.21164</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3120.03811</v>
+        <v>3545.92193</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1532.80949</v>
+        <v>1556.89862</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3727.6611</v>
+        <v>4462.12292</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2997.45857</v>
+        <v>3993.2147</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6275.803140000001</v>
+        <v>7403.662530000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4651.82391</v>
+        <v>6370.58523</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4805.869320000001</v>
+        <v>6435.330089999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>33898.25315999999</v>
+        <v>42491.77878</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>16470.62107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>18916.30017</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>73419.602</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>116.333</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,191 +2164,216 @@
       <c r="M34" s="48" t="n">
         <v>202.11161</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3820.75062</v>
+        <v>3137.31741</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4586.06096</v>
+        <v>3577.08631</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4337.628320000001</v>
+        <v>4013.93048</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>7115.508890000001</v>
+        <v>7282.9049</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6332.231130000001</v>
+        <v>5436.42319</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>9751.017970000001</v>
+        <v>7591.55007</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>7649.04463</v>
+        <v>5361.79459</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9815.405040000001</v>
+        <v>9164.21364</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>10068.92619</v>
+        <v>9078.848910000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>10920.73232</v>
+        <v>9497.078030000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>19923.66347</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>15140.78455</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>14155.357</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>7107.29454</v>
+        <v>6593.86202</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3864.93368</v>
+        <v>4205.04346</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>7176.906059999999</v>
+        <v>6966.02223</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4246.0402</v>
+        <v>4326.488310000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7212.54691</v>
+        <v>8316.802220000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5767.72464</v>
+        <v>7548.86169</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>11746.29722</v>
+        <v>12559.87463</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>9652.624820000001</v>
+        <v>12506.0462</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7560.58554</v>
+        <v>10834.69829</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>42151.42879</v>
+        <v>52706.40098999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>26692.60326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>30496.96573</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>90651.723</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>303.77787</v>
+        <v>361.98637</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>174.7097</v>
+        <v>180.94496</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>162.80166</v>
+        <v>269.49934</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>374.70862</v>
+        <v>454.3295</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>234.25365</v>
+        <v>348.49277</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>261.2946</v>
+        <v>320.13789</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>504.61833</v>
+        <v>499.16159</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>874.4275799999999</v>
+        <v>1229.63529</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>456.77209</v>
+        <v>466.0186</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>329.39397</v>
+        <v>284.77511</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>342.6772</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>335.71579</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>682.134</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2669.93272</v>
+        <v>2615.47575</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>985.5906600000001</v>
+        <v>1051.47978</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>1495.37638</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1297.85201</v>
+        <v>1278.48622</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1680.82559</v>
+        <v>2014.61098</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2176.96912</v>
+        <v>2185.61912</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1736.30756</v>
+        <v>1788.70756</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1101.64998</v>
+        <v>1528.15255</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>735.67246</v>
+        <v>900.8980600000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2858.97336</v>
+        <v>4552.102190000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7089.14412</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7918.65092</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2958.75</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>52.77953</v>
+        <v>34.4228</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>134.38723</v>
+        <v>137.86707</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>71.44888</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>18.14505</v>
+        <v>53.99115</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>367.51493</v>
+        <v>388.0298</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>53.00066</v>
+        <v>30.77066</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>113.80685</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>20.5392</v>
+        <v>20.54057</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>155.94981</v>
@@ -2308,59 +2384,69 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>227.937</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2925.11475</v>
+        <v>2627.9577</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1929.59773</v>
+        <v>2246.30686</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3096.2126</v>
+        <v>3950.59314</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1708.04232</v>
+        <v>1741.84567</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3632.40815</v>
+        <v>4302.510719999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2389.63866</v>
+        <v>4221.80498</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5815.38975</v>
+        <v>6767.99969</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4790.45821</v>
+        <v>7000.16585</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>4585.39411</v>
+        <v>8182.95725</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>35865.53888</v>
+        <v>44876.86842</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>14338.97916</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>17680.22005</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>83594.52899999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.51156</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>7.994050000000001</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>4.35469</v>
+        <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>0.02186</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>42.17074</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>73.76600000000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.13833</v>
+        <v>10.68286</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>7.967309999999999</v>
+        <v>20.23714</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>63.93332</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>103.63338</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1155.03978</v>
+        <v>942.82498</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>632.6543099999999</v>
+        <v>588.44479</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2346.71185</v>
+        <v>1179.10449</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>839.30303</v>
+        <v>777.57677</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1231.90954</v>
+        <v>1197.5229</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>886.74672</v>
+        <v>790.4541599999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3361.23955</v>
+        <v>3175.26376</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2865.54985</v>
+        <v>2727.55194</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1626.79672</v>
+        <v>1128.87422</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2292.2082</v>
+        <v>2187.34089</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4775.99866</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4416.57485</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3114.607</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>17769.52574</v>
+        <v>19340.60487</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>13330.04373</v>
+        <v>15517.07094</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>17319.4432</v>
+        <v>20720.72475</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>22588.15043</v>
+        <v>26547.2967</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>30935.57301</v>
+        <v>35498.85431</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>34929.671</v>
+        <v>38349.3083</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>42818.01057</v>
+        <v>50235.92842</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>48413.36596</v>
+        <v>60742.21149</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>46412.23249</v>
+        <v>68307.78848</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>113606.02177</v>
+        <v>127098.26674</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>124902.61248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>140597.0102</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>158751.829</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>16932.97969</v>
+        <v>18599.37378</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>12853.44573</v>
+        <v>15103.69017</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>16750.39189</v>
+        <v>20171.17578</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>21624.91467</v>
+        <v>25629.97788</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>29144.26797</v>
+        <v>33065.27293</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>33059.37708</v>
+        <v>36571.05449</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>40622.89407</v>
+        <v>47887.3066</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>45862.94608</v>
+        <v>58310.26812</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>44031.79217</v>
+        <v>65985.18827</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>109293.4767</v>
+        <v>119951.60719</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>118276.45358</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>134671.10544</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>153352.656</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>836.54605</v>
+        <v>741.23109</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>476.598</v>
+        <v>413.38077</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>569.0513100000001</v>
+        <v>549.5489699999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>963.23576</v>
+        <v>917.3188200000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1791.30504</v>
+        <v>2433.58138</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1870.29392</v>
+        <v>1778.25381</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2195.1165</v>
+        <v>2348.62182</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2550.41988</v>
+        <v>2431.94337</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2380.44032</v>
+        <v>2322.60021</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>4312.54507</v>
+        <v>7146.659549999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>6626.158899999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5925.904759999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5399.173</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>13473.57871</v>
+        <v>15894.52752</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>30344.92922</v>
+        <v>30714.93694</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>30173.64855</v>
+        <v>32470.12527</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>50012.68676</v>
+        <v>49919.33022</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>76688.11722</v>
+        <v>83140.64359000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>59082.50701</v>
+        <v>60413.86543</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>55453.97720999999</v>
+        <v>59908.62406</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>50862.67972</v>
+        <v>55781.35116</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>69594.17074000002</v>
+        <v>70649.98924</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>76380.76018000001</v>
+        <v>75569.14805</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>97626.53831</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>84219.31587000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>132066.988</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5066.32963</v>
+        <v>5992.184730000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5541.406279999999</v>
+        <v>6385.82998</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7141.21638</v>
+        <v>6487.781099999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>10567.09317</v>
+        <v>8162.74767</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7837.2482</v>
+        <v>7967.760130000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>7901.37047</v>
+        <v>10762.05841</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>14878.39151</v>
+        <v>15714.33733</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>14423.86011</v>
+        <v>20317.60016</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>18303.98413</v>
+        <v>25177.37787</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>45014.70038</v>
+        <v>41705.53166</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>23511.67423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>31295.45269</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>48140.697</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>7.82709</v>
+        <v>7.43109</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>120.47981</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>285.24841</v>
+        <v>190.97273</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>161.45757</v>
+        <v>137.63257</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>35.16364</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>125.89746</v>
+        <v>56.07313000000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>524.45044</v>
+        <v>135.64554</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>771.6511999999999</v>
+        <v>928.36377</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>166.37684</v>
+        <v>164.41616</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>512.2615</v>
+        <v>520.35784</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>146.77806</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>567.8869999999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5058.50254</v>
+        <v>5984.753640000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5420.926469999999</v>
+        <v>6265.35017</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6855.96797</v>
+        <v>6296.808369999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>10405.6356</v>
+        <v>8025.1151</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>7802.08456</v>
+        <v>7932.59649</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>7775.47301</v>
+        <v>10705.98528</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>14353.94107</v>
+        <v>15578.69179</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>13652.20891</v>
+        <v>19389.23639</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>18137.60729</v>
+        <v>25012.96171</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>44502.43888</v>
+        <v>41185.17382</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>23364.89617</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>31148.67463</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>47572.81</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4404.91471</v>
+        <v>6019.29854</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6909.8788</v>
+        <v>5767.45324</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>20352.90798</v>
+        <v>20056.89421</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4129.59269</v>
+        <v>5706.61181</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7414.261140000001</v>
+        <v>10372.01399</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>18000.5725</v>
+        <v>18144.18936</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>10763.49891</v>
+        <v>10431.95332</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>39743.01096</v>
+        <v>41055.43248</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>12969.48519</v>
+        <v>12137.17868</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>27812.45686</v>
+        <v>24975.78134</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>23757.9348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>25702.43216</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>67733.59299999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>224.7737</v>
+        <v>2037.32954</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>83.94473000000001</v>
+        <v>376.53147</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>369.1941</v>
+        <v>342.07345</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>110.53477</v>
+        <v>152.44089</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>443.20495</v>
+        <v>2596.47135</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>327.66912</v>
+        <v>313.57142</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>849.50788</v>
+        <v>1109.79475</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>890.63189</v>
+        <v>1034.7325</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>284.58028</v>
+        <v>580.92998</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>849.9093</v>
+        <v>842.35788</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1254.82506</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1454.33375</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1581.027</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>522.68056</v>
+        <v>518.15723</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>274.62575</v>
+        <v>479.87811</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>62.11229</v>
+        <v>254.0944</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>125.79592</v>
+        <v>169.70512</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>136.20099</v>
+        <v>127.89246</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>640.8551199999999</v>
+        <v>651.8757800000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>617.58537</v>
+        <v>625.96087</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>349.44476</v>
+        <v>336.46361</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>250.72697</v>
+        <v>263.26639</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>840.86799</v>
+        <v>831.89565</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>458.94243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>452.92873</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>638.6799999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3657.46045</v>
+        <v>3463.81177</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6551.30832</v>
+        <v>4911.04366</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>19921.60159</v>
+        <v>19460.72636</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3893.262</v>
+        <v>5384.4658</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6834.855199999999</v>
+        <v>7647.65018</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>17032.04826</v>
+        <v>17178.74216</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>9296.40566</v>
+        <v>8696.197699999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>38502.93431</v>
+        <v>39684.23637</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>12434.17794</v>
+        <v>11292.98231</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>26121.67957</v>
+        <v>23301.52781</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>22044.16731</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>23795.16968</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>65513.886</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>14134.99363</v>
+        <v>15867.41371</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>28976.4567</v>
+        <v>31333.31368</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>16961.95695</v>
+        <v>18901.01216</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>56450.18724</v>
+        <v>52375.46608</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>77111.10428</v>
+        <v>80736.38973000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>48983.30498</v>
+        <v>53031.73448</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>59568.86981</v>
+        <v>65191.00807</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>25543.52887</v>
+        <v>35043.51884</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>74928.66968000001</v>
+        <v>83690.18842999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>93583.0037</v>
+        <v>92298.89837000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>97380.27774</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>89812.3364</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>112474.092</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4899.04175</v>
+        <v>5153.77624</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6180.66059</v>
+        <v>6119.25981</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7264.4611</v>
+        <v>7370.67902</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>9949.43744</v>
+        <v>9963.398380000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>13980.07012</v>
+        <v>14664.11279</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>12629.08006</v>
+        <v>12103.41338</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>13485.9677</v>
+        <v>13625.25513</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>12737.48905</v>
+        <v>13825.47044</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>14734.68005</v>
+        <v>15734.15533</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>25003.3718</v>
+        <v>24510.21628</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>25476.74119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>24402.27794</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>41136.579</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>9235.951880000001</v>
+        <v>10713.63747</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>22795.79611</v>
+        <v>25214.05387</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>9697.495849999999</v>
+        <v>11530.33314</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>46500.7498</v>
+        <v>42412.0677</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>63131.03416</v>
+        <v>66072.27694</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>36354.22492</v>
+        <v>40928.3211</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>46082.90211</v>
+        <v>51565.75294000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>12806.03982</v>
+        <v>21218.0484</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>60193.98963</v>
+        <v>67956.0331</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>68579.63190000001</v>
+        <v>67788.68209</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>71903.53654999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>65410.05845999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>71337.51300000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>731</v>
+        <v>643</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>810</v>
+        <v>719</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>882</v>
+        <v>785</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>927</v>
+        <v>805</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>996</v>
+        <v>812</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1046</v>
+        <v>868</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1081</v>
+        <v>872</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1138</v>
+        <v>926</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>816</v>
+        <v>706</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>736</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>